--- a/Dia2/Challenge_EjHoras/Personal.xlsx
+++ b/Dia2/Challenge_EjHoras/Personal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desarrollo\DevPlace\Dia2\Challenge_EjHoras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98619E4-375D-4587-BE86-FE6ADB7CD07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="18135" yWindow="4230" windowWidth="11025" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Pedro Perez</t>
+  </si>
+  <si>
+    <t>Juan Gopnzalez</t>
+  </si>
+  <si>
+    <t>Pablo Picapiedras</t>
+  </si>
+  <si>
+    <t>Marcelo Gomez</t>
+  </si>
+  <si>
+    <t>Alberto Paredes</t>
+  </si>
+  <si>
+    <t>Sebastian Romani</t>
+  </si>
+  <si>
+    <t>Mauricio Morales</t>
+  </si>
+  <si>
+    <t>Facundo Fredes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +366,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D8">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dia2/Challenge_EjHoras/Personal.xlsx
+++ b/Dia2/Challenge_EjHoras/Personal.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desarrollo\DevPlace\Dia2\Challenge_EjHoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98619E4-375D-4587-BE86-FE6ADB7CD07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866FF0A9-045B-4B98-A78F-8D24BB5BD35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="4230" windowWidth="11025" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18135" yWindow="4230" windowWidth="11025" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Personal" sheetId="1" r:id="rId1"/>
+    <sheet name="Horas" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Pedro Perez</t>
   </si>
   <si>
-    <t>Juan Gopnzalez</t>
-  </si>
-  <si>
     <t>Pablo Picapiedras</t>
   </si>
   <si>
@@ -49,6 +47,27 @@
   </si>
   <si>
     <t>Facundo Fredes</t>
+  </si>
+  <si>
+    <t>Juan Gonzalez</t>
+  </si>
+  <si>
+    <t>legajo</t>
+  </si>
+  <si>
+    <t>apynom</t>
+  </si>
+  <si>
+    <t>valorhora</t>
+  </si>
+  <si>
+    <t>tot_hrs_trab</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>hrs_trab</t>
   </si>
 </sst>
 </file>
@@ -84,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,131 +387,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>12</v>
+      <c r="A1" t="s">
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>80.5</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>80.5</v>
       </c>
       <c r="D2">
-        <v>2.2999999999999998</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>80.5</v>
       </c>
       <c r="D3">
-        <v>5.0999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>80.5</v>
       </c>
       <c r="D4">
-        <v>3.4</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>80.5</v>
       </c>
       <c r="D5">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>80.5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>80.5</v>
       </c>
       <c r="D7">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>80.5</v>
-      </c>
-      <c r="D8">
+      <c r="C11" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D12">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D13">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D19">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D20">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D21">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D25">
         <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF7FC7A-3B66-4774-8297-ED4DB4948909}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B12">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B13">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B17">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B19">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B21">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>12.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>